--- a/design/MiniTemplate/Datas/__enums__.xlsx
+++ b/design/MiniTemplate/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1AAA0-A88D-4E41-AC05-256E9DB382D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCA7298-9B13-4BBE-BB15-93907858C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8964" yWindow="7092" windowWidth="19068" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -77,13 +77,49 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>role.Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XIAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +130,15 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -153,6 +198,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,26 +480,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +529,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -533,6 +584,59 @@
         <v>18</v>
       </c>
       <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/design/MiniTemplate/Datas/__enums__.xlsx
+++ b/design/MiniTemplate/Datas/__enums__.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCA7298-9B13-4BBE-BB15-93907858C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3A8F7-4FC6-4F1A-9E91-BCCA5EFEFE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8964" yWindow="7092" windowWidth="19068" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -79,26 +79,6 @@
     <t>注释</t>
   </si>
   <si>
-    <t>role.Quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XIAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +92,166 @@
   </si>
   <si>
     <t>神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleQuality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>revive</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTrigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attacking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attacked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,14 +336,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -521,13 +658,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -586,8 +723,8 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>19</v>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -595,47 +732,227 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5">
+      <c r="D8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/design/MiniTemplate/Datas/__enums__.xlsx
+++ b/design/MiniTemplate/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3A8F7-4FC6-4F1A-9E91-BCCA5EFEFE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F4CA13-B7A2-4473-AD96-FD51A7385C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -252,6 +252,10 @@
   </si>
   <si>
     <t>对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abandon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -817,141 +821,146 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="b">
+      <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="b">
+      <c r="D22" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H22" s="3" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="b">
+      <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="b">
+      <c r="D24" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>63</v>
       </c>
     </row>

--- a/design/MiniTemplate/Datas/__enums__.xlsx
+++ b/design/MiniTemplate/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F4CA13-B7A2-4473-AD96-FD51A7385C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87612D2D-E0BD-4DD5-9831-70358D97DCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5688" yWindow="1284" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>abandon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -964,6 +972,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
